--- a/auto/new_data/12_SWIFT各幣別支付占比.xlsx
+++ b/auto/new_data/12_SWIFT各幣別支付占比.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>10.5%</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.61%</t>
+          <t>2.93%</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>2.73%</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.85%</t>
+          <t>1.68%</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1%</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.41%</t>
+          <t>7.31%</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.27%</t>
+          <t>3.91%</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22.56%</t>
+          <t>22.90%</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.01%</t>
+          <t>47.04%</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/12_SWIFT各幣別支付占比.xlsx
+++ b/auto/new_data/12_SWIFT各幣別支付占比.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.5%</t>
+          <t>10.17%</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.93%</t>
+          <t>3.89%</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.73%</t>
+          <t>2.61%</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.68%</t>
+          <t>1.69%</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.31%</t>
+          <t>7.27%</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.91%</t>
+          <t>3.44%</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22.90%</t>
+          <t>22.29%</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47.04%</t>
+          <t>47.68%</t>
         </is>
       </c>
     </row>
